--- a/dataset/dataset_tables/porsche_tmp.xlsx
+++ b/dataset/dataset_tables/porsche_tmp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\micha\homeworks\NLP\AgentToBeNamed\dataset\dataset_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5CC352-DE47-4DEC-87DC-07CB34624DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE825AA3-9CA9-4AD0-818F-39FD0AEA9392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15840" yWindow="4920" windowWidth="11115" windowHeight="7155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>torque (Nm)</t>
   </si>
   <si>
-    <t>acceleration (0-60 mph)</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Green</t>
+  </si>
+  <si>
+    <t>acceleration (0-100)</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,18 +475,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -561,10 +561,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -587,10 +587,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
       <c r="C10">
         <v>13</v>
